--- a/biology/Botanique/Macabeu/Macabeu.xlsx
+++ b/biology/Botanique/Macabeu/Macabeu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le macabeu B[1] est un cépage blanc espagnol de raisin de cuve.
+Le macabeu B est un cépage blanc espagnol de raisin de cuve.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il pourrait être originaire d'Aragon[2] ou de Catalogne[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il pourrait être originaire d'Aragon ou de Catalogne.
 Pour la viticulture en Espagne, il est beaucoup cultivé dans le vignoble de Catalogne et celui d'Aragon, notamment pour la production du cava (vin effervescent).
 Concernant la viticulture en France, on le rencontre dans le vignoble du Languedoc-Roussillon, où il participe notamment aux vins doux naturels comme le rivesaltes et le maury.
 </t>
@@ -545,9 +559,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des variantes orthographiques existent : macaban, macabeu, maccabeu, macabeo, maccabeo, maccabeou, makkobeo. Il peut aussi porter les noms alcanol, alcanon blanca de Daroca, charas, blanc, forcalla, gredelin, lardot, listan andaluschii, listan andaluzkii, lloza, malvoisie, provençal, queue de renard, rossan, subirat, tokay,  verdigell, viuna, viura [4].	
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des variantes orthographiques existent : macaban, macabeu, maccabeu, macabeo, maccabeo, maccabeou, makkobeo. Il peut aussi porter les noms alcanol, alcanon blanca de Daroca, charas, blanc, forcalla, gredelin, lardot, listan andaluschii, listan andaluzkii, lloza, malvoisie, provençal, queue de renard, rossan, subirat, tokay,  verdigell, viuna, viura .	
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bourgeonnement est cotonneux à bordure rouge et les jeunes feuilles sont jaunes, très bullées et pubescentes.
 Le rameau herbacé présente des entre-nœuds aplatis et striés. 
@@ -612,12 +630,52 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Culturales
-Le macabeu est très vigoureux, à port érigé et productif. Pour limiter sa production, il est important de le tailler court. Sa pousse rapide le rend sensible au vent (casse des jeunes rameaux).
+          <t>Culturales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le macabeu est très vigoureux, à port érigé et productif. Pour limiter sa production, il est important de le tailler court. Sa pousse rapide le rend sensible au vent (casse des jeunes rameaux).
 Il craint les terrains frais et l'humidité stagnante. Il craint aussi la sécheresse : il le manifeste alors par du folletage et une défeuillaison précoce.
 Il est sensible aux maladies cryptogamiques : oïdium et pourriture grise, surtout en terrain fertile. Il craint également les acariens et la nécrose bactérienne.
-Technologiques
-Le macabeu peut être utilisé pour l'élaboration de vin blanc sec. C'est un produit fin et vif, mais qui est peu expressif et ne se conserve pas longtemps. Utilisé comme base de vin effervescent, il donne une bonne finesse de bulle et un arôme délicat. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macabeu</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macabeu</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aptitudes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Technologiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le macabeu peut être utilisé pour l'élaboration de vin blanc sec. C'est un produit fin et vif, mais qui est peu expressif et ne se conserve pas longtemps. Utilisé comme base de vin effervescent, il donne une bonne finesse de bulle et un arôme délicat. 
 Vinifié en vin doux naturel, il présente une bonne capacité à accumuler les sucres et donne un produit jaune paille et peu acide.
 </t>
         </is>
